--- a/Häufigkeitsanalyse.xlsx
+++ b/Häufigkeitsanalyse.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t xml:space="preserve">In das gelbe Feld den Text reinkopieren</t>
+    <t xml:space="preserve">In das unten stehende Feld den Text reinkopieren</t>
   </si>
   <si>
     <t xml:space="preserve">GVBBXLELEZDVGMKXAKMFYBTBKTXXPWKRHTMXNMVXKXGBTCXIMXGXLGEBXHGGBGFHIUBAOLELEZNSKVNBTYDMKVMXXWANZXXXPXGPWBTXEGXXVXEWLGXG</t>
@@ -325,7 +325,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -802,11 +802,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="92569758"/>
-        <c:axId val="68585116"/>
+        <c:axId val="75298518"/>
+        <c:axId val="55516182"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92569758"/>
+        <c:axId val="75298518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -871,7 +871,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68585116"/>
+        <c:crossAx val="55516182"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -879,7 +879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68585116"/>
+        <c:axId val="55516182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,7 +944,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92569758"/>
+        <c:crossAx val="75298518"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,15 +1001,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>122760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>768600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1017,8 +1017,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9983160" y="313200"/>
-        <a:ext cx="6189840" cy="6118560"/>
+        <a:off x="11116800" y="313200"/>
+        <a:ext cx="6198480" cy="6118200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1038,13 +1038,13 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
